--- a/File/写入数据.xlsx
+++ b/File/写入数据.xlsx
@@ -17,13 +17,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00FF0000"/>
+      <sz val="24"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +53,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,7 +432,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="60" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -432,19 +448,10 @@
         <v/>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2" ht="50" customHeight="1"/>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -471,7 +478,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B5" t="n">
@@ -612,6 +619,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>